--- a/machines.xlsx
+++ b/machines.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">freeradius</t>
+  </si>
   <si>
     <t xml:space="preserve">192.168.100.21</t>
   </si>
@@ -73,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -93,12 +97,14 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,13 +179,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:D5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="181" zoomScaleNormal="181" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.3"/>
@@ -187,58 +193,61 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/machines.xlsx
+++ b/machines.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t xml:space="preserve">freeradius</t>
   </si>
@@ -62,6 +62,78 @@
   </si>
   <si>
     <t xml:space="preserve">P@ssw0rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerEdge R210 II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.100.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel(R) Xeon(R) CPU E3-1220 V2 @ 3.10GHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDC WD5003ABYX-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerEdge R230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.100.160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maybe raid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel(R) Xeon(R) CPU E3-1220 v5 @ 3.00GHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERC_H330_Adp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThinkSystem SR630 -[7X02CTO1WW]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.100.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel(R) Xeon(R) Silver 4208 CPU @ 2.10GHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerEdge R240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.100.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel(R) Xeon(R) E-2124 CPU @ 3.30GHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.100.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maybe slave</t>
   </si>
 </sst>
 </file>
@@ -179,17 +251,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="181" zoomScaleNormal="181" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="45.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -248,6 +322,139 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
